--- a/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece COVID de forma grave</t>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -700,17 +701,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -720,22 +721,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -745,12 +746,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -773,22 +774,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,47</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -798,22 +799,22 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,95</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 32,1</t>
+          <t>0,87; 8,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -823,17 +824,17 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,32</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 21,28</t>
+          <t>1,16; 5,37</t>
         </is>
       </c>
     </row>
@@ -850,7 +851,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -865,12 +866,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -890,12 +891,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -915,12 +916,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -938,72 +939,72 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,15</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,52</t>
+          <t>0,0; 6,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 27,63</t>
+          <t>0,41; 3,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,91</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 19,83</t>
+          <t>0,39; 2,44</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 19,26</t>
+          <t>0,56; 5,21</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1104,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1113,67 +1114,67 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,21</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 32,36</t>
+          <t>0,27; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 25,01</t>
+          <t>0,43; 5,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,88</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 23,5</t>
+          <t>0,28; 2,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,35</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,69</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 21,4</t>
+          <t>0,44; 1,98</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 15,32</t>
+          <t>0,47; 3,27</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1273,27 +1274,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 59,57</t>
+          <t>0,34; 3,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 36,47</t>
+          <t>0,58; 3,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 37,56</t>
+          <t>1,6; 7,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1308,42 +1309,42 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,97</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 29,01</t>
+          <t>0,27; 2,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 26,2</t>
+          <t>0,85; 5,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 46,48</t>
+          <t>0,29; 1,72</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 25,81</t>
+          <t>0,67; 2,65</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 27,09</t>
+          <t>1,71; 5,2</t>
         </is>
       </c>
     </row>
@@ -1370,22 +1371,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>5,94%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,52%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1395,22 +1396,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>66,97%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1420,17 +1421,17 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,54</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,13</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 53,64</t>
+          <t>3,03; 10,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 62,44</t>
+          <t>0,35; 3,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,46</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 44,27</t>
+          <t>2,34; 7,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 56,35</t>
+          <t>0,22; 2,2</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 25,54</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,13; 43,28</t>
+          <t>3,24; 7,93</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1531,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1545,42 +1546,42 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1590,17 +1591,17 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1613,27 +1614,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,15</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,88</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1648,42 +1649,42 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,51</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 45,75</t>
+          <t>0,35; 3,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 71,48</t>
+          <t>0,61; 7,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,97</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 40,19</t>
+          <t>0,38; 2,25</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 50,41</t>
+          <t>0,41; 4,51</t>
         </is>
       </c>
     </row>
@@ -1700,77 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 76,99</t>
+          <t>0,01; 0,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,88</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 25,75</t>
+          <t>0,14; 0,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 16,27</t>
+          <t>0,41; 1,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,72</t>
+          <t>1,74; 3,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 72,29</t>
+          <t>0,06; 0,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,95</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 18,65</t>
+          <t>0,19; 0,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,73</t>
+          <t>0,69; 1,64</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,68</t>
+          <t>1,77; 4,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,44; 61,92</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 44,97</t>
+          <t>0,03; 0,29</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 18,69</t>
+          <t>0,23; 0,68</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,26</t>
+          <t>0,64; 1,33</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,0</t>
+          <t>1,94; 3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2457</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12612</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16728</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>322; 3147</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13032</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19299</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>915; 4251</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4873</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8245</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13118</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17890</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3337</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2137; 20041</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3752</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4374; 27072</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>543; 5043</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6282</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7695</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13977</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12137</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13253</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1843; 18263</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>257; 3315</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9655</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10083</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7940</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2002; 19067</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1817</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13436</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10138</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15097</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6076; 27638</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>530; 3724</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8271</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10629</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7237</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>10393</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17866</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10381</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14962</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2184; 20139</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3706; 21365</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>929; 4263</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10511</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1773; 16203</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>446; 2726</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9324</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16184</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3781; 22678</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8641; 34424</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1886; 5740</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2643</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6692</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8382</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5410</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4840</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8409</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9150</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1349; 4832</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13739</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1784; 18272</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12937</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1142; 3800</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12031</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2172; 22124</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1583; 15613</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3017; 7393</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2644</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9760</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>12404</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10153</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12981</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1131</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19165</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2392; 24089</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>389; 4935</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12381</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19661</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>4644; 27557</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>451; 4987</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12526</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26014</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7900</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8122</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15969</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>40108</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8110</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>28495</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>66122</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>16010</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>252; 18395</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 16395</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4691; 26791</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14055; 44150</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5231; 11714</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2016; 19881</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10100</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6762; 30823</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24804; 59188</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5363; 12126</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5767; 29211</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2007; 20289</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>15942; 48349</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>45061; 94032</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>11728; 21127</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>